--- a/fuentes/contenidos/grado11/guion06/SolicitudGraficaMA_11_06_CO_REC250.xlsx
+++ b/fuentes/contenidos/grado11/guion06/SolicitudGraficaMA_11_06_CO_REC250.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="192">
   <si>
     <t>Fecha:</t>
   </si>
@@ -395,9 +395,6 @@
     <t>Área:</t>
   </si>
   <si>
-    <t>CN_08_01_REC10</t>
-  </si>
-  <si>
     <t>CN_08_02_REC10_IMG01</t>
   </si>
   <si>
@@ -603,6 +600,9 @@
   </si>
   <si>
     <t>Fotografía</t>
+  </si>
+  <si>
+    <t>MA_11_06_REC250</t>
   </si>
 </sst>
 </file>
@@ -1550,6 +1550,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1648,7 +1649,6 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2487,7 +2487,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12:J15"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2533,19 +2533,19 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="F2" s="78" t="s">
+      <c r="D2" s="87"/>
+      <c r="F2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="79"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
       <c r="L2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M2" s="2" t="str">
         <f ca="1">IF($N2&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N2,1,1,1),"")</f>
@@ -2564,15 +2564,15 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
       <c r="L3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M3" s="2" t="str">
         <f ca="1">IF($N3&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N3,1,1,1),"")</f>
@@ -2591,8 +2591,8 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -2621,8 +2621,8 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2677,7 +2677,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -2706,12 +2706,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -2773,21 +2773,21 @@
         <v>IMG01</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M8A</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC10_IMG01n.png</v>
+        <v>MA_11_06_REC250_IMG01n.png</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2795,14 +2795,14 @@
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_08_01_REC10_IMG01a.png</v>
+        <v>MA_11_06_REC250_IMG01a.png</v>
       </c>
       <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
@@ -2815,7 +2815,7 @@
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="109">
+      <c r="B11" s="78">
         <v>166723337</v>
       </c>
       <c r="C11" s="20" t="str">
@@ -2823,14 +2823,14 @@
         <v>Recurso M8A</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC10_IMG02n.png</v>
+        <v>MA_11_06_REC250_IMG02n.png</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_08_01_REC10_IMG02a.png</v>
+        <v>MA_11_06_REC250_IMG02a.png</v>
       </c>
       <c r="I11" s="13" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -2856,22 +2856,22 @@
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>188</v>
+      <c r="B12" s="78">
+        <v>26068990</v>
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M8A</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CN_08_01_REC10_IMG03n.png</v>
+        <v>MA_11_06_REC250_IMG03n.png</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2879,15 +2879,13 @@
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG03a.png</v>
+        <v>MA_11_06_REC250_IMG03a.png</v>
       </c>
       <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J12" s="63" t="s">
-        <v>190</v>
-      </c>
+      <c r="J12" s="63"/>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
@@ -2900,21 +2898,21 @@
         <v>IMG04</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M8A</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CN_08_01_REC10_IMG04n.png</v>
+        <v>MA_11_06_REC250_IMG04n.png</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2922,14 +2920,14 @@
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG04a.png</v>
+        <v>MA_11_06_REC250_IMG04a.png</v>
       </c>
       <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
@@ -2943,21 +2941,21 @@
         <v>IMG05</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M8A</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F14" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CN_08_01_REC10_IMG05n.png</v>
+        <v>MA_11_06_REC250_IMG05n.png</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2965,14 +2963,14 @@
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG05a.png</v>
+        <v>MA_11_06_REC250_IMG05a.png</v>
       </c>
       <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J14" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
@@ -2986,21 +2984,21 @@
         <v>IMG06</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M8A</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F15" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CN_08_01_REC10_IMG06n.png</v>
+        <v>MA_11_06_REC250_IMG06n.png</v>
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3008,14 +3006,14 @@
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG06a.png</v>
+        <v>MA_11_06_REC250_IMG06a.png</v>
       </c>
       <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
@@ -3026,32 +3024,40 @@
     <row r="16" spans="1:16" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B16" s="62"/>
+        <v>IMG07</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>187</v>
+      </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
+        <v>Recurso M8A</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F16" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>MA_11_06_REC250_IMG07n.png</v>
       </c>
       <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>286 x 286 px</v>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>MA_11_06_REC250_IMG07a.png</v>
       </c>
       <c r="I16" s="13" t="str">
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="67"/>
+        <v>500 x 500 px</v>
+      </c>
+      <c r="J16" s="63" t="s">
+        <v>189</v>
+      </c>
       <c r="K16" s="68"/>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
@@ -6012,25 +6018,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -6038,11 +6044,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6093,11 +6099,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="105" t="str">
+      <c r="D5" s="106" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6142,12 +6148,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="91" t="str">
+      <c r="D7" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6241,14 +6247,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6281,12 +6287,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6326,12 +6332,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="99" t="str">
+      <c r="D17" s="100" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6347,12 +6353,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="91" t="str">
+      <c r="D18" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -6743,40 +6749,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
@@ -6789,7 +6795,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>70</v>
@@ -6805,7 +6811,7 @@
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="40"/>
     </row>
@@ -6814,7 +6820,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>74</v>
@@ -6832,10 +6838,10 @@
         <v>76</v>
       </c>
       <c r="H4" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -6843,7 +6849,7 @@
         <v>77</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>78</v>
@@ -6861,10 +6867,10 @@
         <v>76</v>
       </c>
       <c r="H5" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -6872,7 +6878,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>79</v>
@@ -6890,10 +6896,10 @@
         <v>76</v>
       </c>
       <c r="H6" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -6917,7 +6923,7 @@
       </c>
       <c r="G7" s="42"/>
       <c r="H7" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I7" s="42"/>
     </row>
@@ -6926,7 +6932,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>81</v>
@@ -6944,10 +6950,10 @@
         <v>76</v>
       </c>
       <c r="H8" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -6955,7 +6961,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>83</v>
@@ -6973,10 +6979,10 @@
         <v>76</v>
       </c>
       <c r="H9" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -6984,7 +6990,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>85</v>
@@ -7002,10 +7008,10 @@
         <v>76</v>
       </c>
       <c r="H10" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -7013,7 +7019,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>87</v>
@@ -7029,7 +7035,7 @@
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I11" s="42"/>
     </row>
@@ -7038,7 +7044,7 @@
         <v>89</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="73" t="s">
         <v>90</v>
@@ -7056,10 +7062,10 @@
         <v>76</v>
       </c>
       <c r="H12" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -7067,7 +7073,7 @@
         <v>91</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>92</v>
@@ -7085,10 +7091,10 @@
         <v>76</v>
       </c>
       <c r="H13" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -7111,7 +7117,7 @@
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="77" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -7133,7 +7139,7 @@
       </c>
       <c r="G15" s="75"/>
       <c r="H15" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I15" s="75"/>
       <c r="J15" s="77" t="s">
@@ -7159,10 +7165,10 @@
         <v>116</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J16" s="47" t="s">
         <v>102</v>
@@ -7181,10 +7187,10 @@
         <v>72</v>
       </c>
       <c r="F17" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="42" t="s">
         <v>157</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>158</v>
       </c>
       <c r="H17" s="48" t="s">
         <v>104</v>
@@ -7198,13 +7204,13 @@
     </row>
     <row r="18" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="44" t="s">
         <v>71</v>
@@ -7217,17 +7223,17 @@
       </c>
       <c r="G18" s="44"/>
       <c r="H18" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="44" t="s">
@@ -7237,21 +7243,21 @@
         <v>93</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="44" t="s">
@@ -7261,21 +7267,21 @@
         <v>93</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G20" s="44"/>
       <c r="H20" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I20" s="44"/>
       <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="44" t="s">
@@ -7285,24 +7291,24 @@
         <v>93</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I21" s="72"/>
       <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>133</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>134</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>71</v>
@@ -7311,22 +7317,22 @@
         <v>93</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="44" t="s">
         <v>133</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>134</v>
       </c>
       <c r="D23" s="44" t="s">
         <v>71</v>
@@ -7335,24 +7341,24 @@
         <v>93</v>
       </c>
       <c r="F23" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="46" t="s">
-        <v>177</v>
-      </c>
       <c r="H23" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I23" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="44"/>
       <c r="D24" s="44" t="s">
@@ -7362,23 +7368,23 @@
         <v>93</v>
       </c>
       <c r="F24" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="46" t="s">
         <v>176</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>177</v>
       </c>
       <c r="H24" s="44"/>
       <c r="I24" s="72"/>
     </row>
     <row r="25" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>71</v>
@@ -7387,22 +7393,22 @@
         <v>93</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="44" t="s">
         <v>71</v>
@@ -7411,27 +7417,27 @@
         <v>93</v>
       </c>
       <c r="F26" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="46" t="s">
-        <v>177</v>
-      </c>
       <c r="H26" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I26" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" s="44" t="s">
         <v>71</v>
@@ -7440,22 +7446,22 @@
         <v>93</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" s="46"/>
       <c r="H27" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="44" t="s">
         <v>71</v>
@@ -7464,22 +7470,22 @@
         <v>93</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G28" s="46"/>
       <c r="H28" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="44" t="s">
         <v>71</v>
@@ -7488,27 +7494,27 @@
         <v>93</v>
       </c>
       <c r="F29" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="G29" s="46" t="s">
-        <v>177</v>
-      </c>
       <c r="H29" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I29" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D30" s="44" t="s">
         <v>71</v>
@@ -7517,7 +7523,7 @@
         <v>93</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
@@ -7525,13 +7531,13 @@
     </row>
     <row r="31" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="44"/>
@@ -7542,10 +7548,10 @@
     </row>
     <row r="32" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
@@ -7557,10 +7563,10 @@
     </row>
     <row r="33" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" s="44"/>
       <c r="D33" s="44" t="s">
@@ -7570,7 +7576,7 @@
         <v>93</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
@@ -7578,13 +7584,13 @@
     </row>
     <row r="34" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
@@ -7598,10 +7604,10 @@
         <v>95</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="44" t="s">
         <v>71</v>
@@ -7610,16 +7616,16 @@
         <v>93</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H35" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I35" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -7627,10 +7633,10 @@
         <v>95</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="44" t="s">
         <v>71</v>
@@ -7639,27 +7645,27 @@
         <v>93</v>
       </c>
       <c r="F36" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="G36" s="44" t="s">
-        <v>182</v>
-      </c>
       <c r="H36" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D37" s="44" t="s">
         <v>71</v>
@@ -7668,7 +7674,7 @@
         <v>93</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
@@ -7676,13 +7682,13 @@
     </row>
     <row r="38" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B38" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="44" t="s">
         <v>170</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>171</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>71</v>
@@ -7691,7 +7697,7 @@
         <v>93</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
@@ -7709,7 +7715,7 @@
       </c>
       <c r="B41" s="51"/>
       <c r="C41" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="53" t="s">
         <v>22</v>
@@ -7723,10 +7729,10 @@
       </c>
       <c r="B42" s="54"/>
       <c r="C42" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
@@ -7737,10 +7743,10 @@
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="56" t="s">
         <v>128</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>129</v>
       </c>
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
@@ -7751,10 +7757,10 @@
       </c>
       <c r="B44" s="54"/>
       <c r="C44" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
@@ -7765,21 +7771,21 @@
       </c>
       <c r="B45" s="54"/>
       <c r="C45" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="56" t="s">
         <v>131</v>
-      </c>
-      <c r="D45" s="56" t="s">
-        <v>132</v>
       </c>
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
     </row>
     <row r="46" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="54"/>
       <c r="C46" s="55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" s="56" t="s">
         <v>113</v>
